--- a/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C505687-C970-49D6-B453-E2B5DFC5CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0F4D3F-32DE-418C-874F-EDB542419EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{985CAD48-E252-4BFF-A29E-C6C0798AD6DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB643855-5992-468B-AE69-CEEE031A67C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1255 +77,1261 @@
     <t>19,79%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C666D-0038-4EC0-9DD7-E7261867518F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC03D3-BD9D-4283-860A-A9DFC3214245}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2651,13 +2657,13 @@
         <v>402562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>879</v>
@@ -2666,13 +2672,13 @@
         <v>892255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>1965049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2284</v>
@@ -2702,13 +2708,13 @@
         <v>2338375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4207</v>
@@ -2717,13 +2723,13 @@
         <v>4303424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF35ECA-37F6-45E4-B3E3-93646DB4B137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EA511-922F-4C3F-89DD-638DEBED73CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2930,13 @@
         <v>33572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -2939,13 +2945,13 @@
         <v>15589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2954,13 +2960,13 @@
         <v>49161</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2981,13 @@
         <v>67182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -2990,13 +2996,13 @@
         <v>78229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3005,7 +3011,7 @@
         <v>145411</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>141</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49FF1F-ABF2-4735-A4BA-49CCB732C2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D6C66-155B-4D37-B067-1FA17C203690}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,10 +4151,10 @@
         <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4157,13 +4163,13 @@
         <v>70074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -4172,13 +4178,13 @@
         <v>164700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>331593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4208,13 +4214,13 @@
         <v>373287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -4223,13 +4229,13 @@
         <v>704880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4303,13 @@
         <v>131014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4312,13 +4318,13 @@
         <v>112610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -4327,13 +4333,13 @@
         <v>243625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4354,13 @@
         <v>685332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>716</v>
@@ -4363,13 +4369,13 @@
         <v>753763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1349</v>
@@ -4378,13 +4384,13 @@
         <v>1439094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4458,13 @@
         <v>104868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -4467,13 +4473,13 @@
         <v>66979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4482,13 +4488,13 @@
         <v>171847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4509,13 @@
         <v>445492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -4518,13 +4524,13 @@
         <v>512759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>893</v>
@@ -4533,13 +4539,13 @@
         <v>958251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,10 +4616,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -4622,13 +4628,13 @@
         <v>113731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4637,13 +4643,13 @@
         <v>239097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,10 +4667,10 @@
         <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>709</v>
@@ -4673,13 +4679,13 @@
         <v>762016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -4688,13 +4694,13 @@
         <v>1409285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,10 +4771,10 @@
         <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -4777,7 +4783,7 @@
         <v>373344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>319</v>
@@ -4795,10 +4801,10 @@
         <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,16 +4816,16 @@
         <v>2076</v>
       </c>
       <c r="D20" s="7">
-        <v>2188606</v>
+        <v>2188605</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>2381</v>
@@ -4828,13 +4834,13 @@
         <v>2492876</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>4457</v>
@@ -4843,13 +4849,13 @@
         <v>4681482</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4867,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4905,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AEFF21-EA17-4E14-A68E-E75D7DDB73F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594665A3-06F3-4F55-BD48-269076F09512}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5056,13 @@
         <v>23065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5065,13 +5071,13 @@
         <v>19559</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5080,13 +5086,13 @@
         <v>42625</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,7 +5107,7 @@
         <v>77409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>341</v>
@@ -5226,7 +5232,7 @@
         <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -5235,13 +5241,13 @@
         <v>207500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5262,13 @@
         <v>407306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>789</v>
@@ -5271,13 +5277,13 @@
         <v>480840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5286,13 +5292,13 @@
         <v>888146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5366,13 @@
         <v>138825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -5375,13 +5381,13 @@
         <v>123700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>379</v>
@@ -5390,13 +5396,13 @@
         <v>262525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5417,13 @@
         <v>876771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1280</v>
@@ -5426,13 +5432,13 @@
         <v>918400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>2043</v>
@@ -5441,13 +5447,13 @@
         <v>1795171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5521,13 @@
         <v>79807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5530,13 +5536,13 @@
         <v>66244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -5545,13 +5551,13 @@
         <v>146050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5572,13 @@
         <v>628734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>930</v>
@@ -5581,13 +5587,13 @@
         <v>795944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>1501</v>
@@ -5596,13 +5602,13 @@
         <v>1424680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5676,13 @@
         <v>154177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5685,13 +5691,13 @@
         <v>113536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -5700,13 +5706,13 @@
         <v>267714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5727,13 @@
         <v>770929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>1338</v>
@@ -5736,13 +5742,13 @@
         <v>1001240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>2127</v>
@@ -5751,13 +5757,13 @@
         <v>1772169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,10 +5834,10 @@
         <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>684</v>
@@ -5840,13 +5846,13 @@
         <v>411696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>1298</v>
@@ -5855,13 +5861,13 @@
         <v>926413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5882,13 @@
         <v>2761149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>4533</v>
@@ -5891,13 +5897,13 @@
         <v>3305152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>7171</v>
@@ -5906,13 +5912,13 @@
         <v>6066301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0F4D3F-32DE-418C-874F-EDB542419EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B21F38B-8A34-41DC-89F6-706D343CD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB643855-5992-468B-AE69-CEEE031A67C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28A61E8F-1D4F-4FDE-B312-96746D60ABB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1191 +77,1185 @@
     <t>19,79%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>17,86%</t>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
     <t>85,69%</t>
   </si>
   <si>
@@ -1283,9 +1277,6 @@
     <t>15,71%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
     <t>17,23%</t>
   </si>
   <si>
@@ -1311,9 +1302,6 @@
   </si>
   <si>
     <t>82,77%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
   </si>
   <si>
     <t>88,92%</t>
@@ -1743,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC03D3-BD9D-4283-860A-A9DFC3214245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835C6B7-ADAC-4801-8408-4FF2AC98AFAD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>15392</v>
+        <v>15393</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1966,7 +1954,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2493,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -2502,13 +2490,13 @@
         <v>129777</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2517,13 +2505,13 @@
         <v>257439</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2526,13 @@
         <v>582027</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>657</v>
@@ -2553,13 +2541,13 @@
         <v>684221</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -2568,13 +2556,13 @@
         <v>1266247</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2630,13 @@
         <v>489693</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -2657,13 +2645,13 @@
         <v>402562</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>879</v>
@@ -2672,13 +2660,13 @@
         <v>892255</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2681,13 @@
         <v>1965049</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2284</v>
@@ -2708,13 +2696,13 @@
         <v>2338375</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4207</v>
@@ -2723,13 +2711,13 @@
         <v>4303424</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EA511-922F-4C3F-89DD-638DEBED73CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311BF744-2444-474E-A07B-7D6E76E9A013}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2918,13 @@
         <v>33572</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -2945,13 +2933,13 @@
         <v>15589</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2960,13 +2948,13 @@
         <v>49161</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2969,13 @@
         <v>67182</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -2996,13 +2984,13 @@
         <v>78229</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3011,7 +2999,7 @@
         <v>145411</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>141</v>
@@ -3416,7 +3404,7 @@
         <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -3425,13 +3413,13 @@
         <v>264002</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3434,13 @@
         <v>479022</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -3461,13 +3449,13 @@
         <v>571505</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -3476,13 +3464,13 @@
         <v>1050528</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3538,13 @@
         <v>148752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3565,13 +3553,13 @@
         <v>156943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>288</v>
@@ -3580,13 +3568,13 @@
         <v>305695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3589,13 @@
         <v>656924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>740</v>
@@ -3616,13 +3604,13 @@
         <v>777250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1374</v>
@@ -3631,13 +3619,13 @@
         <v>1434174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3693,13 @@
         <v>720197</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>514</v>
@@ -3720,13 +3708,13 @@
         <v>551865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -3735,13 +3723,13 @@
         <v>1272062</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3744,13 @@
         <v>2194461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2400</v>
@@ -3771,28 +3759,28 @@
         <v>2593356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>4462</v>
       </c>
       <c r="N20" s="7">
-        <v>4787818</v>
+        <v>4787817</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3822,7 @@
         <v>5650</v>
       </c>
       <c r="N21" s="7">
-        <v>6059880</v>
+        <v>6059879</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3848,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D6C66-155B-4D37-B067-1FA17C203690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF19F7D-4918-442E-8994-23461C27A550}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +3981,13 @@
         <v>19855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4008,13 +3996,13 @@
         <v>9949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4023,13 +4011,13 @@
         <v>29804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4032,13 @@
         <v>78920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4059,13 +4047,13 @@
         <v>91052</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4074,13 +4062,13 @@
         <v>169972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4136,13 @@
         <v>94625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4163,13 +4151,13 @@
         <v>70074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -4178,13 +4166,13 @@
         <v>164700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4187,13 @@
         <v>331593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4214,13 +4202,13 @@
         <v>373287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -4229,13 +4217,13 @@
         <v>704880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4291,13 @@
         <v>131014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4318,13 +4306,13 @@
         <v>112610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -4333,13 +4321,13 @@
         <v>243625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4342,13 @@
         <v>685332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>716</v>
@@ -4369,13 +4357,13 @@
         <v>753763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1349</v>
@@ -4384,13 +4372,13 @@
         <v>1439094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4446,13 @@
         <v>104868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -4473,13 +4461,13 @@
         <v>66979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4488,13 +4476,13 @@
         <v>171847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4497,13 @@
         <v>445492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -4524,13 +4512,13 @@
         <v>512759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>893</v>
@@ -4539,13 +4527,13 @@
         <v>958251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +4604,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -4628,13 +4616,13 @@
         <v>113731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4643,13 +4631,13 @@
         <v>239097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,10 +4655,10 @@
         <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>709</v>
@@ -4679,13 +4667,13 @@
         <v>762016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -4694,13 +4682,13 @@
         <v>1409285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4756,13 @@
         <v>475728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -4783,13 +4771,13 @@
         <v>373344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>799</v>
@@ -4798,13 +4786,13 @@
         <v>849072</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,16 +4804,16 @@
         <v>2076</v>
       </c>
       <c r="D20" s="7">
-        <v>2188605</v>
+        <v>2188606</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>2381</v>
@@ -4834,13 +4822,13 @@
         <v>2492876</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>4457</v>
@@ -4849,13 +4837,13 @@
         <v>4681482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4855,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4911,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594665A3-06F3-4F55-BD48-269076F09512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC5F2CB-D3DA-4971-A30A-8F94BB42CBA2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5044,13 @@
         <v>23065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5071,13 +5059,13 @@
         <v>19559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5086,13 +5074,13 @@
         <v>42625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5095,13 @@
         <v>77409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5122,13 +5110,13 @@
         <v>108727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>280</v>
@@ -5137,13 +5125,13 @@
         <v>186135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5199,13 @@
         <v>118843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -5226,13 +5214,13 @@
         <v>88657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -5241,13 +5229,13 @@
         <v>207500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5250,13 @@
         <v>407306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>789</v>
@@ -5277,13 +5265,13 @@
         <v>480840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5292,13 +5280,13 @@
         <v>888146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5354,13 @@
         <v>138825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -5381,13 +5369,13 @@
         <v>123700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>379</v>
@@ -5396,13 +5384,13 @@
         <v>262525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5405,13 @@
         <v>876771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>1280</v>
@@ -5432,13 +5420,13 @@
         <v>918400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>2043</v>
@@ -5447,13 +5435,13 @@
         <v>1795171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5509,13 @@
         <v>79807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5536,13 +5524,13 @@
         <v>66244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -5551,13 +5539,13 @@
         <v>146050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5560,13 @@
         <v>628734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>930</v>
@@ -5587,13 +5575,13 @@
         <v>795944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1501</v>
@@ -5602,13 +5590,13 @@
         <v>1424680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5664,13 @@
         <v>154177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5691,13 +5679,13 @@
         <v>113536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>348</v>
@@ -5706,13 +5694,13 @@
         <v>267714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5715,13 @@
         <v>770929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1338</v>
@@ -5742,13 +5730,13 @@
         <v>1001240</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>2127</v>
@@ -5757,13 +5745,13 @@
         <v>1772169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5819,13 @@
         <v>514717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>684</v>
@@ -5846,13 +5834,13 @@
         <v>411696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>1298</v>
@@ -5861,13 +5849,13 @@
         <v>926413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5870,13 @@
         <v>2761149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>4533</v>
@@ -5897,13 +5885,13 @@
         <v>3305152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>7171</v>
@@ -5912,13 +5900,13 @@
         <v>6066301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B21F38B-8A34-41DC-89F6-706D343CD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{476F3BAB-1983-43C6-A542-B63DBF6AB329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28A61E8F-1D4F-4FDE-B312-96746D60ABB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC243500-CAB9-4BA4-9925-2CF3F44CF58B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1255 +71,1261 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>17,0%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>82,77%</t>
+    <t>83,0%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835C6B7-ADAC-4801-8408-4FF2AC98AFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B6F53-AA4C-45D7-8EE2-91F20612395C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1852,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>15393</v>
+        <v>15392</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1954,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2481,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -2490,13 +2496,13 @@
         <v>129777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2505,13 +2511,13 @@
         <v>257439</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2532,13 @@
         <v>582027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>657</v>
@@ -2541,13 +2547,13 @@
         <v>684221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -2556,13 +2562,13 @@
         <v>1266247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2636,13 @@
         <v>489693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -2645,13 +2651,13 @@
         <v>402562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>879</v>
@@ -2660,13 +2666,13 @@
         <v>892255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2687,13 @@
         <v>1965049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>2284</v>
@@ -2696,7 +2702,7 @@
         <v>2338375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>
@@ -2794,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311BF744-2444-474E-A07B-7D6E76E9A013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C1BCA-EA8C-4594-84C1-FC921874D9DF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3410,7 @@
         <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -3413,13 +3419,13 @@
         <v>264002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>479022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -3449,13 +3455,13 @@
         <v>571505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -3464,13 +3470,13 @@
         <v>1050528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3544,13 @@
         <v>148752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3553,13 +3559,13 @@
         <v>156943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>288</v>
@@ -3568,13 +3574,13 @@
         <v>305695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3595,13 @@
         <v>656924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>740</v>
@@ -3604,13 +3610,13 @@
         <v>777250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1374</v>
@@ -3619,13 +3625,13 @@
         <v>1434174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3699,13 @@
         <v>720197</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>514</v>
@@ -3708,13 +3714,13 @@
         <v>551865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -3723,13 +3729,13 @@
         <v>1272062</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3750,13 @@
         <v>2194461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2400</v>
@@ -3759,28 +3765,28 @@
         <v>2593356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4462</v>
       </c>
       <c r="N20" s="7">
-        <v>4787817</v>
+        <v>4787818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3828,7 @@
         <v>5650</v>
       </c>
       <c r="N21" s="7">
-        <v>6059879</v>
+        <v>6059880</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3857,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF19F7D-4918-442E-8994-23461C27A550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D49330-F2A6-44F5-9626-7183BDDD05A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3987,13 @@
         <v>19855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3996,13 +4002,13 @@
         <v>9949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4011,13 +4017,13 @@
         <v>29804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4038,13 @@
         <v>78920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4047,13 +4053,13 @@
         <v>91052</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4062,13 +4068,13 @@
         <v>169972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4142,13 @@
         <v>94625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4151,13 +4157,13 @@
         <v>70074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -4166,13 +4172,13 @@
         <v>164700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4193,13 @@
         <v>331593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4202,13 +4208,13 @@
         <v>373287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -4217,13 +4223,13 @@
         <v>704880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4297,13 @@
         <v>131014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4306,13 +4312,13 @@
         <v>112610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -4321,13 +4327,13 @@
         <v>243625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4348,13 @@
         <v>685332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>716</v>
@@ -4357,13 +4363,13 @@
         <v>753763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1349</v>
@@ -4372,13 +4378,13 @@
         <v>1439094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4452,13 @@
         <v>104868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -4461,13 +4467,13 @@
         <v>66979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4476,13 +4482,13 @@
         <v>171847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4503,13 @@
         <v>445492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -4512,13 +4518,13 @@
         <v>512759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>893</v>
@@ -4527,13 +4533,13 @@
         <v>958251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4610,10 @@
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -4616,13 +4622,13 @@
         <v>113731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4631,13 +4637,13 @@
         <v>239097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4661,10 @@
         <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>709</v>
@@ -4667,13 +4673,13 @@
         <v>762016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -4682,13 +4688,13 @@
         <v>1409285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4762,13 @@
         <v>475728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -4771,13 +4777,13 @@
         <v>373344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>799</v>
@@ -4786,13 +4792,13 @@
         <v>849072</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>2188606</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>2381</v>
@@ -4822,13 +4828,13 @@
         <v>2492876</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>4457</v>
@@ -4837,13 +4843,13 @@
         <v>4681482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC5F2CB-D3DA-4971-A30A-8F94BB42CBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FC032-AF6E-4372-840E-F5040F093884}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5050,13 @@
         <v>23065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5059,13 +5065,13 @@
         <v>19559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5074,13 +5080,13 @@
         <v>42625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5101,13 @@
         <v>77409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5110,13 +5116,13 @@
         <v>108727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>280</v>
@@ -5125,13 +5131,13 @@
         <v>186135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5205,13 @@
         <v>118843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -5214,13 +5220,13 @@
         <v>88657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -5229,13 +5235,13 @@
         <v>207500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5256,13 @@
         <v>407306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>789</v>
@@ -5265,13 +5271,13 @@
         <v>480840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5280,13 +5286,13 @@
         <v>888146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5360,13 @@
         <v>138825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -5369,13 +5375,13 @@
         <v>123700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>379</v>
@@ -5384,13 +5390,13 @@
         <v>262525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5411,13 @@
         <v>876771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1280</v>
@@ -5420,13 +5426,13 @@
         <v>918400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>2043</v>
@@ -5435,13 +5441,13 @@
         <v>1795171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5515,13 @@
         <v>79807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5524,13 +5530,13 @@
         <v>66244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -5539,13 +5545,13 @@
         <v>146050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5566,7 @@
         <v>628734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>387</v>
@@ -5697,10 +5703,10 @@
         <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5721,13 @@
         <v>770929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>1338</v>
@@ -5730,13 +5736,13 @@
         <v>1001240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>2127</v>
@@ -5745,13 +5751,13 @@
         <v>1772169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5825,13 @@
         <v>514717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>684</v>
@@ -5834,13 +5840,13 @@
         <v>411696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>1298</v>
@@ -5849,13 +5855,13 @@
         <v>926413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5876,13 @@
         <v>2761149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>4533</v>
@@ -5885,13 +5891,13 @@
         <v>3305152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>7171</v>
@@ -5900,13 +5906,13 @@
         <v>6066301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{476F3BAB-1983-43C6-A542-B63DBF6AB329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E924E774-14CB-4C11-9CFE-CC87B0A65EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC243500-CAB9-4BA4-9925-2CF3F44CF58B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8AAB2EEA-82D9-44DF-B231-0A361E34F346}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="364">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,1264 +68,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>89,21%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B6F53-AA4C-45D7-8EE2-91F20612395C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251739F8-16A5-4C2A-BCF7-4D24D528A227}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1855,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>15392</v>
+        <v>102837</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1870,10 +1675,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>16249</v>
+        <v>73058</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1885,10 +1690,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>31642</v>
+        <v>175894</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1906,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="D5" s="7">
-        <v>62373</v>
+        <v>375000</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1921,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>89</v>
+        <v>471</v>
       </c>
       <c r="I5" s="7">
-        <v>78499</v>
+        <v>465046</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1936,10 +1741,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>840</v>
       </c>
       <c r="N5" s="7">
-        <v>140872</v>
+        <v>840047</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1957,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1792,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7">
-        <v>87444</v>
+        <v>149970</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2025,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>56808</v>
+        <v>97805</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2040,10 +1845,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="N7" s="7">
-        <v>144253</v>
+        <v>247776</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2061,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>312</v>
+        <v>527</v>
       </c>
       <c r="D8" s="7">
-        <v>312628</v>
+        <v>572158</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2076,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>382</v>
+        <v>665</v>
       </c>
       <c r="I8" s="7">
-        <v>386547</v>
+        <v>706421</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2091,10 +1896,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>694</v>
+        <v>1192</v>
       </c>
       <c r="N8" s="7">
-        <v>699174</v>
+        <v>1278578</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2112,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1947,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2165,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>149970</v>
+        <v>109224</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2180,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>97805</v>
+        <v>101922</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2195,10 +2000,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="N10" s="7">
-        <v>247776</v>
+        <v>211146</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2216,10 +2021,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>411</v>
       </c>
       <c r="D11" s="7">
-        <v>572158</v>
+        <v>435865</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2231,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>491</v>
       </c>
       <c r="I11" s="7">
-        <v>706421</v>
+        <v>482687</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2246,10 +2051,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1192</v>
+        <v>902</v>
       </c>
       <c r="N11" s="7">
-        <v>1278578</v>
+        <v>918552</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2267,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2102,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
-        <v>109224</v>
+        <v>127661</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2335,10 +2140,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>101922</v>
+        <v>129777</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2350,10 +2155,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="N13" s="7">
-        <v>211146</v>
+        <v>257439</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2371,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>411</v>
+        <v>616</v>
       </c>
       <c r="D14" s="7">
-        <v>435865</v>
+        <v>582027</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2386,10 +2191,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>491</v>
+        <v>657</v>
       </c>
       <c r="I14" s="7">
-        <v>482687</v>
+        <v>684221</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2401,10 +2206,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>902</v>
+        <v>1273</v>
       </c>
       <c r="N14" s="7">
-        <v>918552</v>
+        <v>1266247</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2422,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2437,10 +2242,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2452,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2469,55 +2274,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="D16" s="7">
-        <v>127661</v>
+        <v>489693</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>395</v>
+      </c>
+      <c r="I16" s="7">
+        <v>402562</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>124</v>
-      </c>
-      <c r="I16" s="7">
-        <v>129777</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>879</v>
+      </c>
+      <c r="N16" s="7">
+        <v>892255</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>262</v>
-      </c>
-      <c r="N16" s="7">
-        <v>257439</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2331,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>616</v>
+        <v>1923</v>
       </c>
       <c r="D17" s="7">
-        <v>582027</v>
+        <v>1965049</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2284</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2338375</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>657</v>
-      </c>
-      <c r="I17" s="7">
-        <v>684221</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4207</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4303424</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1273</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1266247</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2592,10 +2397,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2412,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5195679</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2623,171 +2428,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>484</v>
-      </c>
-      <c r="D19" s="7">
-        <v>489693</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>395</v>
-      </c>
-      <c r="I19" s="7">
-        <v>402562</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>879</v>
-      </c>
-      <c r="N19" s="7">
-        <v>892255</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1923</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1965049</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2284</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2338375</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4207</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4303424</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5195679</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2800,8 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C1BCA-EA8C-4594-84C1-FC921874D9DF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FD8E5E-5C95-4A72-96D8-7508A45B4283}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2817,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,49 +2567,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>179</v>
+      </c>
+      <c r="D4" s="7">
+        <v>186929</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7">
+        <v>112183</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7">
-        <v>33572</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15589</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="N4" s="7">
-        <v>49161</v>
+        <v>299112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2618,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="D5" s="7">
-        <v>67182</v>
+        <v>419022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="I5" s="7">
-        <v>78229</v>
+        <v>523618</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7">
-        <v>137</v>
+        <v>889</v>
       </c>
       <c r="N5" s="7">
-        <v>145411</v>
+        <v>942640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>635801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2699,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3073,49 +2722,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="D7" s="7">
-        <v>153356</v>
+        <v>227506</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="I7" s="7">
-        <v>96594</v>
+        <v>175747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="N7" s="7">
-        <v>249951</v>
+        <v>403253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2773,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>334</v>
+        <v>588</v>
       </c>
       <c r="D8" s="7">
-        <v>351841</v>
+        <v>639492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>418</v>
+        <v>659</v>
       </c>
       <c r="I8" s="7">
-        <v>445389</v>
+        <v>720983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>752</v>
+        <v>1247</v>
       </c>
       <c r="N8" s="7">
-        <v>797229</v>
+        <v>1360475</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2839,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>819</v>
       </c>
       <c r="I9" s="7">
-        <v>541983</v>
+        <v>896730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2854,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1618</v>
       </c>
       <c r="N9" s="7">
-        <v>1047180</v>
+        <v>1763728</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3228,49 +2877,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>227506</v>
+        <v>157011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>175747</v>
+        <v>106992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="N10" s="7">
-        <v>403253</v>
+        <v>264002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2928,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>588</v>
+        <v>438</v>
       </c>
       <c r="D11" s="7">
-        <v>639492</v>
+        <v>479022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>659</v>
+        <v>514</v>
       </c>
       <c r="I11" s="7">
-        <v>720983</v>
+        <v>571505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1247</v>
+        <v>952</v>
       </c>
       <c r="N11" s="7">
-        <v>1360475</v>
+        <v>1050527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3345,10 +2994,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>819</v>
+        <v>615</v>
       </c>
       <c r="I12" s="7">
-        <v>896730</v>
+        <v>678497</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3009,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1618</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7">
-        <v>1763728</v>
+        <v>1314529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3383,49 +3032,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D13" s="7">
-        <v>157011</v>
+        <v>148752</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="I13" s="7">
-        <v>106992</v>
+        <v>156943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="N13" s="7">
-        <v>264002</v>
+        <v>305695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3083,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>438</v>
+        <v>634</v>
       </c>
       <c r="D14" s="7">
-        <v>479022</v>
+        <v>656924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>514</v>
+        <v>740</v>
       </c>
       <c r="I14" s="7">
-        <v>571505</v>
+        <v>777250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>952</v>
+        <v>1374</v>
       </c>
       <c r="N14" s="7">
-        <v>1050528</v>
+        <v>1434174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3500,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>615</v>
+        <v>888</v>
       </c>
       <c r="I15" s="7">
-        <v>678497</v>
+        <v>934193</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3515,10 +3164,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1197</v>
+        <v>1662</v>
       </c>
       <c r="N15" s="7">
-        <v>1314530</v>
+        <v>1739869</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3532,55 +3181,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>140</v>
+        <v>674</v>
       </c>
       <c r="D16" s="7">
-        <v>148752</v>
+        <v>720197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>148</v>
+        <v>514</v>
       </c>
       <c r="I16" s="7">
-        <v>156943</v>
+        <v>551865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>288</v>
+        <v>1188</v>
       </c>
       <c r="N16" s="7">
-        <v>305695</v>
+        <v>1272062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3238,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>634</v>
+        <v>2062</v>
       </c>
       <c r="D17" s="7">
-        <v>656924</v>
+        <v>2194462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>740</v>
+        <v>2400</v>
       </c>
       <c r="I17" s="7">
-        <v>777250</v>
+        <v>2593356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1374</v>
+        <v>4462</v>
       </c>
       <c r="N17" s="7">
-        <v>1434174</v>
+        <v>4787817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3655,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>888</v>
+        <v>2914</v>
       </c>
       <c r="I18" s="7">
-        <v>934193</v>
+        <v>3145221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3670,10 +3319,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1662</v>
+        <v>5650</v>
       </c>
       <c r="N18" s="7">
-        <v>1739869</v>
+        <v>6059879</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3686,171 +3335,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>674</v>
-      </c>
-      <c r="D19" s="7">
-        <v>720197</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>514</v>
-      </c>
-      <c r="I19" s="7">
-        <v>551865</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1188</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1272062</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2194461</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2593356</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4462</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4787818</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3145221</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5650</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6059880</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3863,8 +3356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D49330-F2A6-44F5-9626-7183BDDD05A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E613D4E-B210-4004-BE8B-F6876FE22221}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3880,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D4" s="7">
-        <v>19855</v>
+        <v>114480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>9949</v>
+        <v>80023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="N4" s="7">
-        <v>29804</v>
+        <v>194503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3525,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="D5" s="7">
-        <v>78920</v>
+        <v>410513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>466</v>
       </c>
       <c r="I5" s="7">
-        <v>91052</v>
+        <v>464340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>170</v>
+        <v>864</v>
       </c>
       <c r="N5" s="7">
-        <v>169972</v>
+        <v>874853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3576,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3591,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3606,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4136,49 +3629,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7">
-        <v>94625</v>
+        <v>131014</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7">
-        <v>70074</v>
+        <v>112610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>164700</v>
+        <v>243625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3680,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>321</v>
+        <v>633</v>
       </c>
       <c r="D8" s="7">
-        <v>331593</v>
+        <v>685332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>716</v>
       </c>
       <c r="I8" s="7">
-        <v>373287</v>
+        <v>753763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>694</v>
+        <v>1349</v>
       </c>
       <c r="N8" s="7">
-        <v>704880</v>
+        <v>1439094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3731,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3746,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3761,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4291,49 +3784,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>131014</v>
+        <v>104868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>112610</v>
+        <v>66979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>243625</v>
+        <v>171847</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3835,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>633</v>
+        <v>403</v>
       </c>
       <c r="D11" s="7">
-        <v>685332</v>
+        <v>445492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
-        <v>716</v>
+        <v>490</v>
       </c>
       <c r="I11" s="7">
-        <v>753763</v>
+        <v>512759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1349</v>
+        <v>893</v>
       </c>
       <c r="N11" s="7">
-        <v>1439094</v>
+        <v>958251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3886,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3901,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4446,49 +3939,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7">
-        <v>104868</v>
+        <v>125366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>66979</v>
+        <v>113731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>171847</v>
+        <v>239097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +3990,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="D14" s="7">
-        <v>445492</v>
+        <v>647269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>490</v>
+        <v>709</v>
       </c>
       <c r="I14" s="7">
-        <v>512759</v>
+        <v>762016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>893</v>
+        <v>1351</v>
       </c>
       <c r="N14" s="7">
-        <v>958251</v>
+        <v>1409285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4056,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>812</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>875747</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1580</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1648382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4595,55 +4088,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>126</v>
+        <v>454</v>
       </c>
       <c r="D16" s="7">
-        <v>125366</v>
+        <v>475728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="I16" s="7">
-        <v>113731</v>
+        <v>373344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>229</v>
+        <v>799</v>
       </c>
       <c r="N16" s="7">
-        <v>239097</v>
+        <v>849072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,49 +4145,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>642</v>
+        <v>2076</v>
       </c>
       <c r="D17" s="7">
-        <v>647269</v>
+        <v>2188605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>709</v>
+        <v>2381</v>
       </c>
       <c r="I17" s="7">
-        <v>762016</v>
+        <v>2492877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>1351</v>
+        <v>4457</v>
       </c>
       <c r="N17" s="7">
-        <v>1409285</v>
+        <v>4681482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4211,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>812</v>
+        <v>2726</v>
       </c>
       <c r="I18" s="7">
-        <v>875747</v>
+        <v>2866221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4226,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1580</v>
+        <v>5256</v>
       </c>
       <c r="N18" s="7">
-        <v>1648382</v>
+        <v>5530554</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4749,171 +4242,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>454</v>
-      </c>
-      <c r="D19" s="7">
-        <v>475728</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>345</v>
-      </c>
-      <c r="I19" s="7">
-        <v>373344</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>799</v>
-      </c>
-      <c r="N19" s="7">
-        <v>849072</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2076</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2188606</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2381</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2492876</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4457</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4681482</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2726</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2866220</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5256</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5530554</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4926,8 +4263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FC032-AF6E-4372-840E-F5040F093884}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB28637E-F03E-4B0B-8586-B84E34E2C782}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4943,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,49 +4381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="D4" s="7">
-        <v>23065</v>
+        <v>137010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="I4" s="7">
-        <v>19559</v>
+        <v>100950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="N4" s="7">
-        <v>42625</v>
+        <v>237960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +4432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="D5" s="7">
-        <v>77409</v>
+        <v>474294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
-        <v>196</v>
+        <v>985</v>
       </c>
       <c r="I5" s="7">
-        <v>108727</v>
+        <v>550582</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>280</v>
+        <v>1500</v>
       </c>
       <c r="N5" s="7">
-        <v>186135</v>
+        <v>1024876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5161,10 +4498,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4513,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5199,49 +4536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>118843</v>
+        <v>128954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>88657</v>
+        <v>111968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>207500</v>
+        <v>240922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +4587,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>431</v>
+        <v>763</v>
       </c>
       <c r="D8" s="7">
-        <v>407306</v>
+        <v>1037762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>789</v>
+        <v>1280</v>
       </c>
       <c r="I8" s="7">
-        <v>480840</v>
+        <v>830357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>1220</v>
+        <v>2043</v>
       </c>
       <c r="N8" s="7">
-        <v>888146</v>
+        <v>1868118</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5316,10 +4653,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4668,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5354,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>138825</v>
+        <v>75132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>123700</v>
+        <v>60376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>379</v>
+        <v>178</v>
       </c>
       <c r="N10" s="7">
-        <v>262525</v>
+        <v>135508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>763</v>
+        <v>571</v>
       </c>
       <c r="D11" s="7">
-        <v>876771</v>
+        <v>611135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>1280</v>
+        <v>930</v>
       </c>
       <c r="I11" s="7">
-        <v>918400</v>
+        <v>861677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>2043</v>
+        <v>1501</v>
       </c>
       <c r="N11" s="7">
-        <v>1795171</v>
+        <v>1472812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5471,10 +4808,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5486,10 +4823,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5509,49 +4846,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="D13" s="7">
-        <v>79807</v>
+        <v>143882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="I13" s="7">
-        <v>66244</v>
+        <v>103107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="N13" s="7">
-        <v>146050</v>
+        <v>246989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,49 +4897,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>571</v>
+        <v>789</v>
       </c>
       <c r="D14" s="7">
-        <v>628734</v>
+        <v>744956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>930</v>
+        <v>1338</v>
       </c>
       <c r="I14" s="7">
-        <v>795944</v>
+        <v>959810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>1501</v>
+        <v>2127</v>
       </c>
       <c r="N14" s="7">
-        <v>1424680</v>
+        <v>1704766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>965</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>888838</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5626,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5641,10 +4978,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2475</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1951755</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5658,55 +4995,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="D16" s="7">
-        <v>154177</v>
+        <v>484977</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>172</v>
+        <v>684</v>
       </c>
       <c r="I16" s="7">
-        <v>113536</v>
+        <v>376402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
-        <v>348</v>
+        <v>1298</v>
       </c>
       <c r="N16" s="7">
-        <v>267714</v>
+        <v>861379</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +5052,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>789</v>
+        <v>2638</v>
       </c>
       <c r="D17" s="7">
-        <v>770929</v>
+        <v>2868148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>1338</v>
+        <v>4533</v>
       </c>
       <c r="I17" s="7">
-        <v>1001240</v>
+        <v>3202425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
-        <v>2127</v>
+        <v>7171</v>
       </c>
       <c r="N17" s="7">
-        <v>1772169</v>
+        <v>6070573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>965</v>
+        <v>3252</v>
       </c>
       <c r="D18" s="7">
-        <v>925106</v>
+        <v>3353125</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5781,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5796,10 +5133,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2475</v>
+        <v>8469</v>
       </c>
       <c r="N18" s="7">
-        <v>2039883</v>
+        <v>6931952</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5812,171 +5149,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>614</v>
-      </c>
-      <c r="D19" s="7">
-        <v>514717</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H19" s="7">
-        <v>684</v>
-      </c>
-      <c r="I19" s="7">
-        <v>411696</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1298</v>
-      </c>
-      <c r="N19" s="7">
-        <v>926413</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2638</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2761149</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4533</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3305152</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7171</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6066301</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3252</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275866</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8469</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6992714</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
